--- a/data/projetArnaud/KL.xlsx
+++ b/data/projetArnaud/KL.xlsx
@@ -1,31 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnau\source\repos\MiniCPBP\data\projetArnaud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3AFCDBFB-0818-4339-BE1C-3C11838117D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E95370-3F65-484B-BAD0-94AC89B2BD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="KL" sheetId="1" r:id="rId1"/>
+    <sheet name="LS" sheetId="1" r:id="rId1"/>
+    <sheet name="LS-Weigthed" sheetId="3" r:id="rId2"/>
+    <sheet name="KS" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">KL!$B$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">KL!$B$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">KL!$B$6:$K$6</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Produit LS 10x10 40% 10 iters 10 elem</t>
   </si>
@@ -71,11 +68,62 @@
   <si>
     <t xml:space="preserve"> Problème avec domaine</t>
   </si>
+  <si>
+    <t>Weighted - (2/1+Arity)</t>
+  </si>
+  <si>
+    <t>LS, Produit, 55% - Weighthed</t>
+  </si>
+  <si>
+    <t>(1 + (1/(1+Arity)))</t>
+  </si>
+  <si>
+    <t>(0,7 + (1/(1+Arity)))</t>
+  </si>
+  <si>
+    <t>(0,5 + (1/(1+Arity)))</t>
+  </si>
+  <si>
+    <t>(0,3 + (1/(1+Arity)))</t>
+  </si>
+  <si>
+    <t>(1/(1+Arity))</t>
+  </si>
+  <si>
+    <t>Produit (0,5 + (1/(1+Arity))) avec 30 iter, 55%</t>
+  </si>
+  <si>
+    <t>Max (0,5 + (1/(1+Arity))) avec 30 iter, 55%</t>
+  </si>
+  <si>
+    <t>LS, Produit, 50% - Weighthed</t>
+  </si>
+  <si>
+    <t>LS, Max, 50% - Weighthed</t>
+  </si>
+  <si>
+    <t>LS, Max, 55% - Weighthed</t>
+  </si>
+  <si>
+    <t>Uniforme</t>
+  </si>
+  <si>
+    <t>(0,65 + (1/(1+Arity)))</t>
+  </si>
+  <si>
+    <t>(0,6 + (1/(1+Arity)))</t>
+  </si>
+  <si>
+    <t>(0,55 + (1/(1+Arity)))</t>
+  </si>
+  <si>
+    <t>Produit (0,5 + (1/(1+Arity))) avec 30 iter,- 50%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,8 +601,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -708,7 +758,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>KL!$B$4:$K$4</c:f>
+              <c:f>LS!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -772,7 +822,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>KL!$B$5:$K$5</c:f>
+              <c:f>LS!$B$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -836,7 +886,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>KL!$B$6:$K$6</c:f>
+              <c:f>LS!$B$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1093,16 +1143,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="fr-CA"/>
@@ -1305,13 +1352,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-CA"/>
-              <a:t>Comparaison entre l'utilisation</a:t>
+              <a:t>Comparaison de la divergence KL avec contraintes uniformes</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="fr-CA" baseline="0"/>
-              <a:t> d'un aggrégateur produit et max</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1370,7 +1412,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>KL!$B$3:$K$3</c:f>
+              <c:f>LS!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1434,7 +1476,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>KL!$B$4:$K$4</c:f>
+              <c:f>LS!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1498,39 +1540,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>KL!$B$11:$K$11</c:f>
+              <c:f>LS!$B$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1.8566820496227501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8566820496227501</c:v>
+                  <c:v>1.7457335053942999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7457335053942999</c:v>
+                  <c:v>1.8474144816340401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8474144816340401</c:v>
+                  <c:v>1.7586480123157799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7586480123157799</c:v>
+                  <c:v>1.9309436997210001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9309436997210001</c:v>
+                  <c:v>1.8337229818134799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8337229818134799</c:v>
+                  <c:v>2.3813051153439502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3813051153439502</c:v>
+                  <c:v>2.2901992032705301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2901992032705301</c:v>
+                  <c:v>3.0479743483236201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0479743483236201</c:v>
+                  <c:v>3.41738270972703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,39 +1604,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>KL!$B$12:$K$12</c:f>
+              <c:f>LS!$B$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>10.8827259415425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.8827259415425</c:v>
+                  <c:v>9.8055896422279396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8055896422279396</c:v>
+                  <c:v>9.8697836296367303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8697836296367303</c:v>
+                  <c:v>9.9562107597207596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9562107597207596</c:v>
+                  <c:v>10.206817985136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.206817985136</c:v>
+                  <c:v>10.589653651899299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.589653651899299</c:v>
+                  <c:v>11.7543332534536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.7543332534536</c:v>
+                  <c:v>13.1937518134564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.1937518134564</c:v>
+                  <c:v>16.416274959185699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.416274959185699</c:v>
+                  <c:v>23.2965996549393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,7 +1784,3368 @@
         <c:axId val="1883919776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Divergence de </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" b="0" i="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Kullback-Leibler</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1357914352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Comparaison de la divergence KL avec contraintes pondérées</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Produit 50%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LS!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7623835005680999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.31524364502999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.11617184937539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3440774350410201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1861363748613498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7258556914219501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.26933020001968</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.1635331097931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.464690669781302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.489622542646199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16F0-492A-BB1F-40580B533C2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Produit 55%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LS!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.4755591197281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8660203407711506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1366390432391196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.6872267648403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.4447800044194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.473234954909699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.600618430790703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.146970098822294</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.555641324479</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153.85691328108501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16F0-492A-BB1F-40580B533C2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Max 50%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LS!$B$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8171049217897199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6717258615216899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8379293273055699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8067155584073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2388639480687398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6025350158906799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9056873690049501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7344612415068603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.19332334948185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.879941140345901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-16F0-492A-BB1F-40580B533C2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Max 55%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LS!$B$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.646818285910101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5795209363624405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8996039192979808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5722704835814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.724551852699999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.4335507459982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.015080365106499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.010230971538</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.378112869880603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114.28685078473301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-16F0-492A-BB1F-40580B533C2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1357914352"/>
+        <c:axId val="1883919776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1357914352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Itération de BP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883919776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883919776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Divergence de </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" b="0" i="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Kullback-Leibler</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1357914352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Comparaison de la divergence KL avec différents poids avec</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" baseline="0"/>
+              <a:t> les carrées latins 55% et l'aggrégateur produit</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniforme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.055582913946999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5059771848318899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6844080938078196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0966890344270697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5441803498631996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7673583437329397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5675647383786195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.621484706495099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.951403584234299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.792075858944202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E32-4095-8F18-D7E740791B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(1 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.4755591197281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8660203407711506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1366390432391196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.6872267648403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.4447800044194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.473234954909699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.600618430790703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.146970098822294</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.555641324479</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153.85691328108501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1E32-4095-8F18-D7E740791B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,7 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9113270016770603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.26321701947922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1536934050063401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9466966742632601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2644080069062702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0248456753477599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9214455811929101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1129466681342799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.71117567713824</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4794002353005098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1E32-4095-8F18-D7E740791B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,65 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9047977151427702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3164429471919901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2662448800816399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0821973184892997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.29639506791669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8821254376699899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5474905418978699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4550162152036101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5421009797425298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.76130829693671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1E32-4095-8F18-D7E740791B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,6 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9255360772826808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.44530280580266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.52725046793707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4571683982644004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6995926413461899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.25113082811471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8477321279024101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.65372605921175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5414061578987899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5312907894924801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1E32-4095-8F18-D7E740791B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,55 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9743583023366202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6428506009913599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9080717473499798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0022209547583296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3479215805425104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9479135538100598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5740956948008402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3729342778658902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2138681667128801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1307891447111502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1E32-4095-8F18-D7E740791B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,5 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.0520518024463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.90188092138599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3815299280868203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6574064136739102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1371795951388304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8232582229810701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5276077709694702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.36601824713631</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2300623773844999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1472248800697002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-1E32-4095-8F18-D7E740791B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,3 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.665843063656901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4068059794637495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7519063618827193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5783068951629602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4689961448584601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4212228961994402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3817021999866803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3670211202210005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.35633675925963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3511365440546701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-1E32-4095-8F18-D7E740791B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1357914352"/>
+        <c:axId val="1883919776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1357914352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Itération de BP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883919776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883919776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Divergence de </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" b="0" i="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Kullback-Leibler</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1357914352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Comparaison de la divergence KL avec différents poids avec</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" baseline="0"/>
+              <a:t> les carrées latins 50% et l'aggrégateur produit</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniforme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.74102326170541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.21830193847417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76192964171059396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49617030087392699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43370602237991901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62954456832906003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01566137554995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5678113362044399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.33035226737712</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3725465819567799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CC9-4277-B744-9C33F7AE1E53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(1 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7623835005680999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.31524364502999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.11617184937539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3440774350410201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1861363748613498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7258556914219501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.26933020001968</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.1635331097931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.464690669781302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.489622542646199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CC9-4277-B744-9C33F7AE1E53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,7 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7406301702285401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25861911191267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81415051938965899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.535428836494247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35932177600625398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37551745992532198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57772082143755998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87285476446745602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.26226292077163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75660316976581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8CC9-4277-B744-9C33F7AE1E53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,65 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.74361630417988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2803311324509099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84382033144356605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5652694432516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.347428941631096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26763584293516901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.343699829981778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50248560142754195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72248547565809496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.00244497716268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8CC9-4277-B744-9C33F7AE1E53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,6 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7486373053165101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.30946265922611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89211839525960301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62785217618855405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.399488626496531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26577122195812902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.245267208631821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29365678903530101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38703380647525498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52571511551016104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8CC9-4277-B744-9C33F7AE1E53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,55 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7557491634739499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3452616922877401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95661374096962304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71681365869276303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50263901155285495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35726551625518799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28354604817892498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25454472706571701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25254570849660601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28469529343410599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8CC9-4277-B744-9C33F7AE1E53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,5 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.76500784561503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3869139121001299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0344482055175801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82576956797338397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64164652320250704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51466195335425702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43215301133966599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37406616916396102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32790925277440602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30125551913576398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8CC9-4277-B744-9C33F7AE1E53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LS-Weigthed'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(0,3 + (1/(1+Arity)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LS-Weigthed'!$B$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.82461734721582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.59468667485934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4151567967273799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.33782556678706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.28619784489446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2626898611742901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2490446881245501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.23996390249085</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2327489144005901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2277879900034301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8CC9-4277-B744-9C33F7AE1E53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1357914352"/>
+        <c:axId val="1883919776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1357914352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Itération de BP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883919776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883919776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2074,6 +5477,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3106,20 +6629,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3146,16 +8217,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3163,6 +8234,125 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AA5F93-CF2D-433C-9207-365844794BB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685BEA7B-15AF-4F13-90BF-6B5D21CCD5C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF173C7B-8117-4889-9348-EB2B7722CB1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE33C1D6-E339-4CE4-99E0-9341A1C33092}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3481,11 +8671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3700,70 +8890,70 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1">
         <v>1.8566820496227501</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="1">
         <v>1.7457335053942999</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="1">
         <v>1.8474144816340401</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="1">
         <v>1.7586480123157799</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="1">
         <v>1.9309436997210001</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="1">
         <v>1.8337229818134799</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="1">
         <v>2.3813051153439502</v>
       </c>
-      <c r="J11">
+      <c r="I11" s="1">
         <v>2.2901992032705301</v>
       </c>
-      <c r="K11">
+      <c r="J11" s="1">
         <v>3.0479743483236201</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3.41738270972703</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
         <v>10.8827259415425</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="1">
         <v>9.8055896422279396</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="1">
         <v>9.8697836296367303</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="1">
         <v>9.9562107597207596</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="1">
         <v>10.206817985136</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="1">
         <v>10.589653651899299</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="1">
         <v>11.7543332534536</v>
       </c>
-      <c r="J12">
+      <c r="I12" s="1">
         <v>13.1937518134564</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="1">
         <v>16.416274959185699</v>
+      </c>
+      <c r="K12" s="1">
+        <v>23.2965996549393</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3776,84 +8966,2060 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>3.2056422197156</v>
-      </c>
-      <c r="C16">
-        <v>0.64646407468296097</v>
-      </c>
-      <c r="D16">
-        <v>2.3234904561832002</v>
-      </c>
-      <c r="E16">
-        <v>2.4767696559429102</v>
-      </c>
-      <c r="F16">
-        <v>6.58828635778627</v>
-      </c>
-      <c r="G16">
-        <v>7.4165890812873796</v>
-      </c>
-      <c r="H16">
-        <v>16.769767761254101</v>
-      </c>
-      <c r="I16">
-        <v>17.4725017547607</v>
-      </c>
-      <c r="J16">
-        <v>36.989217758178697</v>
-      </c>
-      <c r="K16">
-        <v>37.679890453815403</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>12.243161963531699</v>
+        <v>1.7623835005680999</v>
       </c>
       <c r="C17">
-        <v>10.196920365487999</v>
+        <v>1.31524364502999</v>
       </c>
       <c r="D17">
-        <v>8.5168616148280307</v>
+        <v>1.11617184937539</v>
       </c>
       <c r="E17">
-        <v>7.3088977102809398</v>
+        <v>1.3440774350410201</v>
       </c>
       <c r="F17">
-        <v>6.2644046153816504</v>
+        <v>2.1861363748613498</v>
       </c>
       <c r="G17">
-        <v>5.6211188972002404</v>
+        <v>3.7258556914219501</v>
       </c>
       <c r="H17">
-        <v>4.8515188897160497</v>
+        <v>6.26933020001968</v>
       </c>
       <c r="I17">
-        <v>4.5133267455688602</v>
+        <v>10.1635331097931</v>
       </c>
       <c r="J17">
-        <v>3.8910397465604301</v>
+        <v>16.464690669781302</v>
       </c>
       <c r="K17">
-        <v>3.67271932560468</v>
+        <v>26.489622542646199</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>10.4755591197281</v>
+      </c>
+      <c r="C18">
+        <v>8.8660203407711506</v>
+      </c>
+      <c r="D18">
+        <v>9.1366390432391196</v>
+      </c>
+      <c r="E18">
+        <v>12.6872267648403</v>
+      </c>
+      <c r="F18">
+        <v>19.4447800044194</v>
+      </c>
+      <c r="G18">
+        <v>29.473234954909699</v>
+      </c>
+      <c r="H18">
+        <v>41.600618430790703</v>
+      </c>
+      <c r="I18">
+        <v>67.146970098822294</v>
+      </c>
+      <c r="J18">
+        <v>102.555641324479</v>
+      </c>
+      <c r="K18">
+        <v>153.85691328108501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>1.8171049217897199</v>
+      </c>
+      <c r="C20">
+        <v>1.6717258615216899</v>
+      </c>
+      <c r="D20">
+        <v>1.8379293273055699</v>
+      </c>
+      <c r="E20">
+        <v>1.8067155584073</v>
+      </c>
+      <c r="F20">
+        <v>2.2388639480687398</v>
+      </c>
+      <c r="G20">
+        <v>2.6025350158906799</v>
+      </c>
+      <c r="H20">
+        <v>3.9056873690049501</v>
+      </c>
+      <c r="I20">
+        <v>5.7344612415068603</v>
+      </c>
+      <c r="J20">
+        <v>7.19332334948185</v>
+      </c>
+      <c r="K20">
+        <v>14.879941140345901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>10.646818285910101</v>
+      </c>
+      <c r="C21">
+        <v>9.5795209363624405</v>
+      </c>
+      <c r="D21">
+        <v>9.8996039192979808</v>
+      </c>
+      <c r="E21">
+        <v>10.5722704835814</v>
+      </c>
+      <c r="F21">
+        <v>11.724551852699999</v>
+      </c>
+      <c r="G21">
+        <v>14.4335507459982</v>
+      </c>
+      <c r="H21">
+        <v>20.015080365106499</v>
+      </c>
+      <c r="I21">
+        <v>31.010230971538</v>
+      </c>
+      <c r="J21">
+        <v>51.378112869880603</v>
+      </c>
+      <c r="K21">
+        <v>114.28685078473301</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62057A49-3773-4A66-B918-97F5E276BE87}">
+  <dimension ref="A1:AD74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>10.055582913946999</v>
+      </c>
+      <c r="C3">
+        <v>7.5059771848318899</v>
+      </c>
+      <c r="D3">
+        <v>5.6844080938078196</v>
+      </c>
+      <c r="E3">
+        <v>5.0966890344270697</v>
+      </c>
+      <c r="F3">
+        <v>5.5441803498631996</v>
+      </c>
+      <c r="G3">
+        <v>6.7673583437329397</v>
+      </c>
+      <c r="H3">
+        <v>8.5675647383786195</v>
+      </c>
+      <c r="I3">
+        <v>11.621484706495099</v>
+      </c>
+      <c r="J3">
+        <v>16.951403584234299</v>
+      </c>
+      <c r="K3">
+        <v>22.792075858944202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>10.4755591197281</v>
+      </c>
+      <c r="C4">
+        <v>8.8660203407711506</v>
+      </c>
+      <c r="D4">
+        <v>9.1366390432391196</v>
+      </c>
+      <c r="E4">
+        <v>12.6872267648403</v>
+      </c>
+      <c r="F4">
+        <v>19.4447800044194</v>
+      </c>
+      <c r="G4">
+        <v>29.473234954909699</v>
+      </c>
+      <c r="H4">
+        <v>41.600618430790703</v>
+      </c>
+      <c r="I4">
+        <v>67.146970098822294</v>
+      </c>
+      <c r="J4">
+        <v>102.555641324479</v>
+      </c>
+      <c r="K4">
+        <v>153.85691328108501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>9.9113270016770603</v>
+      </c>
+      <c r="C5">
+        <v>7.26321701947922</v>
+      </c>
+      <c r="D5">
+        <v>5.1536934050063401</v>
+      </c>
+      <c r="E5">
+        <v>3.9466966742632601</v>
+      </c>
+      <c r="F5">
+        <v>3.2644080069062702</v>
+      </c>
+      <c r="G5">
+        <v>3.0248456753477599</v>
+      </c>
+      <c r="H5">
+        <v>2.9214455811929101</v>
+      </c>
+      <c r="I5">
+        <v>3.1129466681342799</v>
+      </c>
+      <c r="J5">
+        <v>3.71117567713824</v>
+      </c>
+      <c r="K5">
+        <v>4.4794002353005098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>9.9047977151427702</v>
+      </c>
+      <c r="C6">
+        <v>7.3164429471919901</v>
+      </c>
+      <c r="D6">
+        <v>5.2662448800816399</v>
+      </c>
+      <c r="E6">
+        <v>4.0821973184892997</v>
+      </c>
+      <c r="F6">
+        <v>3.29639506791669</v>
+      </c>
+      <c r="G6">
+        <v>2.8821254376699899</v>
+      </c>
+      <c r="H6">
+        <v>2.5474905418978699</v>
+      </c>
+      <c r="I6">
+        <v>2.4550162152036101</v>
+      </c>
+      <c r="J6">
+        <v>2.5421009797425298</v>
+      </c>
+      <c r="K6">
+        <v>2.76130829693671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>9.9255360772826808</v>
+      </c>
+      <c r="C7">
+        <v>7.44530280580266</v>
+      </c>
+      <c r="D7">
+        <v>5.52725046793707</v>
+      </c>
+      <c r="E7">
+        <v>4.4571683982644004</v>
+      </c>
+      <c r="F7">
+        <v>3.6995926413461899</v>
+      </c>
+      <c r="G7">
+        <v>3.25113082811471</v>
+      </c>
+      <c r="H7">
+        <v>2.8477321279024101</v>
+      </c>
+      <c r="I7">
+        <v>2.65372605921175</v>
+      </c>
+      <c r="J7">
+        <v>2.5414061578987899</v>
+      </c>
+      <c r="K7">
+        <v>2.5312907894924801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>9.9743583023366202</v>
+      </c>
+      <c r="C8">
+        <v>7.6428506009913599</v>
+      </c>
+      <c r="D8">
+        <v>5.9080717473499798</v>
+      </c>
+      <c r="E8">
+        <v>5.0022209547583296</v>
+      </c>
+      <c r="F8">
+        <v>4.3479215805425104</v>
+      </c>
+      <c r="G8">
+        <v>3.9479135538100598</v>
+      </c>
+      <c r="H8">
+        <v>3.5740956948008402</v>
+      </c>
+      <c r="I8">
+        <v>3.3729342778658902</v>
+      </c>
+      <c r="J8">
+        <v>3.2138681667128801</v>
+      </c>
+      <c r="K8">
+        <v>3.1307891447111502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>10.0520518024463</v>
+      </c>
+      <c r="C9">
+        <v>7.90188092138599</v>
+      </c>
+      <c r="D9">
+        <v>6.3815299280868203</v>
+      </c>
+      <c r="E9">
+        <v>5.6574064136739102</v>
+      </c>
+      <c r="F9">
+        <v>5.1371795951388304</v>
+      </c>
+      <c r="G9">
+        <v>4.8232582229810701</v>
+      </c>
+      <c r="H9">
+        <v>4.5276077709694702</v>
+      </c>
+      <c r="I9">
+        <v>4.36601824713631</v>
+      </c>
+      <c r="J9">
+        <v>4.2300623773844999</v>
+      </c>
+      <c r="K9">
+        <v>4.1472248800697002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>10.665843063656901</v>
+      </c>
+      <c r="C10">
+        <v>9.4068059794637495</v>
+      </c>
+      <c r="D10">
+        <v>8.7519063618827193</v>
+      </c>
+      <c r="E10">
+        <v>8.5783068951629602</v>
+      </c>
+      <c r="F10">
+        <v>8.4689961448584601</v>
+      </c>
+      <c r="G10">
+        <v>8.4212228961994402</v>
+      </c>
+      <c r="H10">
+        <v>8.3817021999866803</v>
+      </c>
+      <c r="I10">
+        <v>8.3670211202210005</v>
+      </c>
+      <c r="J10">
+        <v>8.35633675925963</v>
+      </c>
+      <c r="K10">
+        <v>8.3511365440546701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>12.5543620767366</v>
+      </c>
+      <c r="C11">
+        <v>12.3720324785344</v>
+      </c>
+      <c r="D11">
+        <v>12.332154792227801</v>
+      </c>
+      <c r="E11">
+        <v>12.3301802300687</v>
+      </c>
+      <c r="F11">
+        <v>12.329297455356899</v>
+      </c>
+      <c r="G11">
+        <v>12.329185069946201</v>
+      </c>
+      <c r="H11">
+        <v>12.3291361240471</v>
+      </c>
+      <c r="I11">
+        <v>12.3291327791397</v>
+      </c>
+      <c r="J11">
+        <v>12.3291311098459</v>
+      </c>
+      <c r="K11">
+        <v>12.3291308380948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1.74102326170541</v>
+      </c>
+      <c r="C14">
+        <v>1.21830193847417</v>
+      </c>
+      <c r="D14">
+        <v>0.76192964171059396</v>
+      </c>
+      <c r="E14">
+        <v>0.49617030087392699</v>
+      </c>
+      <c r="F14">
+        <v>0.43370602237991901</v>
+      </c>
+      <c r="G14">
+        <v>0.62954456832906003</v>
+      </c>
+      <c r="H14">
+        <v>1.01566137554995</v>
+      </c>
+      <c r="I14">
+        <v>1.5678113362044399</v>
+      </c>
+      <c r="J14">
+        <v>2.33035226737712</v>
+      </c>
+      <c r="K14">
+        <v>3.3725465819567799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1.7623835005680999</v>
+      </c>
+      <c r="C15">
+        <v>1.31524364502999</v>
+      </c>
+      <c r="D15">
+        <v>1.11617184937539</v>
+      </c>
+      <c r="E15">
+        <v>1.3440774350410201</v>
+      </c>
+      <c r="F15">
+        <v>2.1861363748613498</v>
+      </c>
+      <c r="G15">
+        <v>3.7258556914219501</v>
+      </c>
+      <c r="H15">
+        <v>6.26933020001968</v>
+      </c>
+      <c r="I15">
+        <v>10.1635331097931</v>
+      </c>
+      <c r="J15">
+        <v>16.464690669781302</v>
+      </c>
+      <c r="K15">
+        <v>26.489622542646199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>1.7406301702285401</v>
+      </c>
+      <c r="C16">
+        <v>1.25861911191267</v>
+      </c>
+      <c r="D16">
+        <v>0.81415051938965899</v>
+      </c>
+      <c r="E16">
+        <v>0.535428836494247</v>
+      </c>
+      <c r="F16">
+        <v>0.35932177600625398</v>
+      </c>
+      <c r="G16">
+        <v>0.37551745992532198</v>
+      </c>
+      <c r="H16">
+        <v>0.57772082143755998</v>
+      </c>
+      <c r="I16">
+        <v>0.87285476446745602</v>
+      </c>
+      <c r="J16">
+        <v>1.26226292077163</v>
+      </c>
+      <c r="K16">
+        <v>1.75660316976581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>1.74361630417988</v>
+      </c>
+      <c r="C17">
+        <v>1.2803311324509099</v>
+      </c>
+      <c r="D17">
+        <v>0.84382033144356605</v>
+      </c>
+      <c r="E17">
+        <v>0.5652694432516</v>
+      </c>
+      <c r="F17">
+        <v>0.347428941631096</v>
+      </c>
+      <c r="G17">
+        <v>0.26763584293516901</v>
+      </c>
+      <c r="H17">
+        <v>0.343699829981778</v>
+      </c>
+      <c r="I17">
+        <v>0.50248560142754195</v>
+      </c>
+      <c r="J17">
+        <v>0.72248547565809496</v>
+      </c>
+      <c r="K17">
+        <v>1.00244497716268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>1.7486373053165101</v>
+      </c>
+      <c r="C18">
+        <v>1.30946265922611</v>
+      </c>
+      <c r="D18">
+        <v>0.89211839525960301</v>
+      </c>
+      <c r="E18">
+        <v>0.62785217618855405</v>
+      </c>
+      <c r="F18">
+        <v>0.399488626496531</v>
+      </c>
+      <c r="G18">
+        <v>0.26577122195812902</v>
+      </c>
+      <c r="H18">
+        <v>0.245267208631821</v>
+      </c>
+      <c r="I18">
+        <v>0.29365678903530101</v>
+      </c>
+      <c r="J18">
+        <v>0.38703380647525498</v>
+      </c>
+      <c r="K18">
+        <v>0.52571511551016104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>1.7557491634739499</v>
+      </c>
+      <c r="C19">
+        <v>1.3452616922877401</v>
+      </c>
+      <c r="D19">
+        <v>0.95661374096962304</v>
+      </c>
+      <c r="E19">
+        <v>0.71681365869276303</v>
+      </c>
+      <c r="F19">
+        <v>0.50263901155285495</v>
+      </c>
+      <c r="G19">
+        <v>0.35726551625518799</v>
+      </c>
+      <c r="H19">
+        <v>0.28354604817892498</v>
+      </c>
+      <c r="I19">
+        <v>0.25454472706571701</v>
+      </c>
+      <c r="J19">
+        <v>0.25254570849660601</v>
+      </c>
+      <c r="K19">
+        <v>0.28469529343410599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.76500784561503</v>
+      </c>
+      <c r="C20">
+        <v>1.3869139121001299</v>
+      </c>
+      <c r="D20">
+        <v>1.0344482055175801</v>
+      </c>
+      <c r="E20">
+        <v>0.82576956797338397</v>
+      </c>
+      <c r="F20">
+        <v>0.64164652320250704</v>
+      </c>
+      <c r="G20">
+        <v>0.51466195335425702</v>
+      </c>
+      <c r="H20">
+        <v>0.43215301133966599</v>
+      </c>
+      <c r="I20">
+        <v>0.37406616916396102</v>
+      </c>
+      <c r="J20">
+        <v>0.32790925277440602</v>
+      </c>
+      <c r="K20">
+        <v>0.30125551913576398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1.82461734721582</v>
+      </c>
+      <c r="C21">
+        <v>1.59468667485934</v>
+      </c>
+      <c r="D21">
+        <v>1.4151567967273799</v>
+      </c>
+      <c r="E21">
+        <v>1.33782556678706</v>
+      </c>
+      <c r="F21">
+        <v>1.28619784489446</v>
+      </c>
+      <c r="G21">
+        <v>1.2626898611742901</v>
+      </c>
+      <c r="H21">
+        <v>1.2490446881245501</v>
+      </c>
+      <c r="I21">
+        <v>1.23996390249085</v>
+      </c>
+      <c r="J21">
+        <v>1.2327489144005901</v>
+      </c>
+      <c r="K21">
+        <v>1.2277879900034301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1.9873067562933999</v>
+      </c>
+      <c r="C22">
+        <v>1.94155423868469</v>
+      </c>
+      <c r="D22">
+        <v>1.9238051131192999</v>
+      </c>
+      <c r="E22">
+        <v>1.92117661751917</v>
+      </c>
+      <c r="F22">
+        <v>1.9203411447110701</v>
+      </c>
+      <c r="G22">
+        <v>1.9202065392638299</v>
+      </c>
+      <c r="H22">
+        <v>1.9201625168110601</v>
+      </c>
+      <c r="I22">
+        <v>1.9201525136239901</v>
+      </c>
+      <c r="J22">
+        <v>1.9201487719016701</v>
+      </c>
+      <c r="K22">
+        <v>1.9201477590756399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>1.8566820496227501</v>
+      </c>
+      <c r="C26">
+        <v>1.7457335053942999</v>
+      </c>
+      <c r="D26">
+        <v>1.8474144816340401</v>
+      </c>
+      <c r="E26">
+        <v>1.7586480123157799</v>
+      </c>
+      <c r="F26">
+        <v>1.9309436997210001</v>
+      </c>
+      <c r="G26">
+        <v>1.8337229818134799</v>
+      </c>
+      <c r="H26">
+        <v>2.3813051153439502</v>
+      </c>
+      <c r="I26">
+        <v>2.2901992032705301</v>
+      </c>
+      <c r="J26">
+        <v>3.0479743483236201</v>
+      </c>
+      <c r="K26">
+        <v>3.41738270972703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>1.8171049217897199</v>
+      </c>
+      <c r="C27">
+        <v>1.6717258615216899</v>
+      </c>
+      <c r="D27">
+        <v>1.8379293273055699</v>
+      </c>
+      <c r="E27">
+        <v>1.8067155584073</v>
+      </c>
+      <c r="F27">
+        <v>2.2388639480687398</v>
+      </c>
+      <c r="G27">
+        <v>2.6025350158906799</v>
+      </c>
+      <c r="H27">
+        <v>3.9056873690049501</v>
+      </c>
+      <c r="I27">
+        <v>5.7344612415068603</v>
+      </c>
+      <c r="J27">
+        <v>7.19332334948185</v>
+      </c>
+      <c r="K27">
+        <v>14.879941140345901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>1.91179767700668</v>
+      </c>
+      <c r="C28">
+        <v>1.8262921373148799</v>
+      </c>
+      <c r="D28">
+        <v>1.84786810279856</v>
+      </c>
+      <c r="E28">
+        <v>1.8309809891044999</v>
+      </c>
+      <c r="F28">
+        <v>1.8467662639422899</v>
+      </c>
+      <c r="G28">
+        <v>1.83445378729741</v>
+      </c>
+      <c r="H28">
+        <v>1.8509561686962099</v>
+      </c>
+      <c r="I28">
+        <v>1.84171249795217</v>
+      </c>
+      <c r="J28">
+        <v>1.8608830924147799</v>
+      </c>
+      <c r="K28">
+        <v>1.8534773364850401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>2.0615497063030399</v>
+      </c>
+      <c r="C29">
+        <v>2.0497074701987898</v>
+      </c>
+      <c r="D29">
+        <v>2.0499537106463301</v>
+      </c>
+      <c r="E29">
+        <v>2.04979287314272</v>
+      </c>
+      <c r="F29">
+        <v>2.0498109464508101</v>
+      </c>
+      <c r="G29">
+        <v>2.04981281429118</v>
+      </c>
+      <c r="H29">
+        <v>2.0498113979861898</v>
+      </c>
+      <c r="I29">
+        <v>2.0498126246766302</v>
+      </c>
+      <c r="J29">
+        <v>2.0498120729103899</v>
+      </c>
+      <c r="K29">
+        <v>2.0498123499202801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>10.8827259415425</v>
+      </c>
+      <c r="C32">
+        <v>9.8055896422279396</v>
+      </c>
+      <c r="D32">
+        <v>9.8697836296367303</v>
+      </c>
+      <c r="E32">
+        <v>9.9562107597207596</v>
+      </c>
+      <c r="F32">
+        <v>10.206817985136</v>
+      </c>
+      <c r="G32">
+        <v>10.589653651899299</v>
+      </c>
+      <c r="H32">
+        <v>11.7543332534536</v>
+      </c>
+      <c r="I32">
+        <v>13.1937518134564</v>
+      </c>
+      <c r="J32">
+        <v>16.416274959185699</v>
+      </c>
+      <c r="K32">
+        <v>23.2965996549393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>10.646818285910101</v>
+      </c>
+      <c r="C33">
+        <v>9.5795209363624405</v>
+      </c>
+      <c r="D33">
+        <v>9.8996039192979808</v>
+      </c>
+      <c r="E33">
+        <v>10.5722704835814</v>
+      </c>
+      <c r="F33">
+        <v>11.724551852699999</v>
+      </c>
+      <c r="G33">
+        <v>14.4335507459982</v>
+      </c>
+      <c r="H33">
+        <v>20.015080365106499</v>
+      </c>
+      <c r="I33">
+        <v>31.010230971538</v>
+      </c>
+      <c r="J33">
+        <v>51.378112869880603</v>
+      </c>
+      <c r="K33">
+        <v>114.28685078473301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>11.125608502044299</v>
+      </c>
+      <c r="C34">
+        <v>10.127709633999601</v>
+      </c>
+      <c r="D34">
+        <v>10.100629227981299</v>
+      </c>
+      <c r="E34">
+        <v>10.0363627798436</v>
+      </c>
+      <c r="F34">
+        <v>10.100388983627999</v>
+      </c>
+      <c r="G34">
+        <v>10.157726536474501</v>
+      </c>
+      <c r="H34">
+        <v>10.303412681501401</v>
+      </c>
+      <c r="I34">
+        <v>10.6158766634882</v>
+      </c>
+      <c r="J34">
+        <v>11.159998830388499</v>
+      </c>
+      <c r="K34">
+        <v>12.008438270152199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>11.599772883715</v>
+      </c>
+      <c r="C35">
+        <v>10.8621647368608</v>
+      </c>
+      <c r="D35">
+        <v>10.808802847174199</v>
+      </c>
+      <c r="E35">
+        <v>10.7361110991269</v>
+      </c>
+      <c r="F35">
+        <v>10.743722990985001</v>
+      </c>
+      <c r="G35">
+        <v>10.7175274882045</v>
+      </c>
+      <c r="H35">
+        <v>10.732874121259</v>
+      </c>
+      <c r="I35">
+        <v>10.722590857346299</v>
+      </c>
+      <c r="J35">
+        <v>10.7286574692545</v>
+      </c>
+      <c r="K35">
+        <v>10.7409481563454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>12.2034208470604</v>
+      </c>
+      <c r="C36">
+        <v>11.779675816532</v>
+      </c>
+      <c r="D36">
+        <v>11.7492017405512</v>
+      </c>
+      <c r="E36">
+        <v>11.723052376502901</v>
+      </c>
+      <c r="F36">
+        <v>11.721215058985001</v>
+      </c>
+      <c r="G36">
+        <v>11.7158925042008</v>
+      </c>
+      <c r="H36">
+        <v>11.717896878869</v>
+      </c>
+      <c r="I36">
+        <v>11.7147560838145</v>
+      </c>
+      <c r="J36">
+        <v>11.717293079827099</v>
+      </c>
+      <c r="K36">
+        <v>11.7145699698571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>13.3709000216709</v>
+      </c>
+      <c r="C37">
+        <v>13.3084839809152</v>
+      </c>
+      <c r="D37">
+        <v>13.306249760058799</v>
+      </c>
+      <c r="E37">
+        <v>13.3055256571248</v>
+      </c>
+      <c r="F37">
+        <v>13.305525942014</v>
+      </c>
+      <c r="G37">
+        <v>13.305505733260301</v>
+      </c>
+      <c r="H37">
+        <v>13.3055080110832</v>
+      </c>
+      <c r="I37">
+        <v>13.3055070471794</v>
+      </c>
+      <c r="J37">
+        <v>13.3055072446711</v>
+      </c>
+      <c r="K37">
+        <v>13.3055071683068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>11</v>
+      </c>
+      <c r="L56">
+        <v>12</v>
+      </c>
+      <c r="M56">
+        <v>13</v>
+      </c>
+      <c r="N56">
+        <v>14</v>
+      </c>
+      <c r="O56">
+        <v>15</v>
+      </c>
+      <c r="P56">
+        <v>16</v>
+      </c>
+      <c r="Q56">
+        <v>17</v>
+      </c>
+      <c r="R56">
+        <v>18</v>
+      </c>
+      <c r="S56">
+        <v>19</v>
+      </c>
+      <c r="T56">
+        <v>20</v>
+      </c>
+      <c r="U56">
+        <v>21</v>
+      </c>
+      <c r="V56">
+        <v>22</v>
+      </c>
+      <c r="W56">
+        <v>23</v>
+      </c>
+      <c r="X56">
+        <v>24</v>
+      </c>
+      <c r="Y56">
+        <v>25</v>
+      </c>
+      <c r="Z56">
+        <v>26</v>
+      </c>
+      <c r="AA56">
+        <v>27</v>
+      </c>
+      <c r="AB56">
+        <v>28</v>
+      </c>
+      <c r="AC56">
+        <v>29</v>
+      </c>
+      <c r="AD56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>10.0520518024463</v>
+      </c>
+      <c r="B59">
+        <v>7.90188092138599</v>
+      </c>
+      <c r="C59">
+        <v>6.3815299280868203</v>
+      </c>
+      <c r="D59">
+        <v>5.6574064136739102</v>
+      </c>
+      <c r="E59">
+        <v>5.1371795951388304</v>
+      </c>
+      <c r="F59">
+        <v>4.8232582229810701</v>
+      </c>
+      <c r="G59">
+        <v>4.5276077709694702</v>
+      </c>
+      <c r="H59">
+        <v>4.36601824713631</v>
+      </c>
+      <c r="I59">
+        <v>4.2300623773844999</v>
+      </c>
+      <c r="J59">
+        <v>4.1472248800697002</v>
+      </c>
+      <c r="K59">
+        <v>4.0710252974051802</v>
+      </c>
+      <c r="L59">
+        <v>4.0216619710532502</v>
+      </c>
+      <c r="M59">
+        <v>3.9785491575812499</v>
+      </c>
+      <c r="N59">
+        <v>3.94753236260985</v>
+      </c>
+      <c r="O59">
+        <v>3.9210622048622099</v>
+      </c>
+      <c r="P59">
+        <v>3.9043797913887901</v>
+      </c>
+      <c r="Q59">
+        <v>3.8938920995507398</v>
+      </c>
+      <c r="R59">
+        <v>3.8900921064680798</v>
+      </c>
+      <c r="S59">
+        <v>3.88987799029259</v>
+      </c>
+      <c r="T59">
+        <v>3.8950489128817001</v>
+      </c>
+      <c r="U59">
+        <v>3.9042087656912399</v>
+      </c>
+      <c r="V59">
+        <v>3.9168283927699798</v>
+      </c>
+      <c r="W59">
+        <v>3.9331515592758399</v>
+      </c>
+      <c r="X59">
+        <v>3.9530844419101401</v>
+      </c>
+      <c r="Y59">
+        <v>3.9769006844195198</v>
+      </c>
+      <c r="Z59">
+        <v>4.0038294680103199</v>
+      </c>
+      <c r="AA59">
+        <v>4.0351084980279204</v>
+      </c>
+      <c r="AB59">
+        <v>4.0699025376945803</v>
+      </c>
+      <c r="AC59">
+        <v>4.1091627533293797</v>
+      </c>
+      <c r="AD59">
+        <v>4.15153359167636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>9.9743583023366202</v>
+      </c>
+      <c r="B61">
+        <v>7.6428506009913599</v>
+      </c>
+      <c r="C61">
+        <v>5.9080717473499798</v>
+      </c>
+      <c r="D61">
+        <v>5.0022209547583296</v>
+      </c>
+      <c r="E61">
+        <v>4.3479215805425104</v>
+      </c>
+      <c r="F61">
+        <v>3.9479135538100598</v>
+      </c>
+      <c r="G61">
+        <v>3.5740956948008402</v>
+      </c>
+      <c r="H61">
+        <v>3.3729342778658902</v>
+      </c>
+      <c r="I61">
+        <v>3.2138681667128801</v>
+      </c>
+      <c r="J61">
+        <v>3.1307891447111502</v>
+      </c>
+      <c r="K61">
+        <v>3.0560819866234801</v>
+      </c>
+      <c r="L61">
+        <v>3.0229824631971698</v>
+      </c>
+      <c r="M61">
+        <v>2.9982708411320802</v>
+      </c>
+      <c r="N61">
+        <v>2.99594358938546</v>
+      </c>
+      <c r="O61">
+        <v>3.0078768044861102</v>
+      </c>
+      <c r="P61">
+        <v>3.0518171645068799</v>
+      </c>
+      <c r="Q61">
+        <v>3.1178870489384698</v>
+      </c>
+      <c r="R61">
+        <v>3.2153719988184601</v>
+      </c>
+      <c r="S61">
+        <v>3.3413494506954899</v>
+      </c>
+      <c r="T61">
+        <v>3.5092309976737801</v>
+      </c>
+      <c r="U61">
+        <v>3.7095891749735501</v>
+      </c>
+      <c r="V61">
+        <v>3.9461365424442199</v>
+      </c>
+      <c r="W61">
+        <v>4.2198150150911697</v>
+      </c>
+      <c r="X61">
+        <v>4.5345203371678497</v>
+      </c>
+      <c r="Y61">
+        <v>4.8821570582216696</v>
+      </c>
+      <c r="Z61">
+        <v>5.2640966529939703</v>
+      </c>
+      <c r="AA61">
+        <v>5.6818737752391799</v>
+      </c>
+      <c r="AB61">
+        <v>6.1348844045976803</v>
+      </c>
+      <c r="AC61">
+        <v>6.6258377017179697</v>
+      </c>
+      <c r="AD61">
+        <v>7.14895642876008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9.9255360772826808</v>
+      </c>
+      <c r="B63">
+        <v>7.44530280580266</v>
+      </c>
+      <c r="C63">
+        <v>5.52725046793707</v>
+      </c>
+      <c r="D63">
+        <v>4.4571683982644004</v>
+      </c>
+      <c r="E63">
+        <v>3.6995926413461899</v>
+      </c>
+      <c r="F63">
+        <v>3.25113082811471</v>
+      </c>
+      <c r="G63">
+        <v>2.8477321279024101</v>
+      </c>
+      <c r="H63">
+        <v>2.65372605921175</v>
+      </c>
+      <c r="I63">
+        <v>2.5414061578987899</v>
+      </c>
+      <c r="J63">
+        <v>2.5312907894924801</v>
+      </c>
+      <c r="K63">
+        <v>2.5499251496715001</v>
+      </c>
+      <c r="L63">
+        <v>2.6405070713821899</v>
+      </c>
+      <c r="M63">
+        <v>2.7631359996420999</v>
+      </c>
+      <c r="N63">
+        <v>2.9353497744766002</v>
+      </c>
+      <c r="O63">
+        <v>3.1832215006433899</v>
+      </c>
+      <c r="P63">
+        <v>3.5558009438855498</v>
+      </c>
+      <c r="Q63">
+        <v>4.0223350084485903</v>
+      </c>
+      <c r="R63">
+        <v>4.6056150789237602</v>
+      </c>
+      <c r="S63">
+        <v>5.3465575723491696</v>
+      </c>
+      <c r="T63">
+        <v>6.2500708617238496</v>
+      </c>
+      <c r="U63">
+        <v>7.3164540235359601</v>
+      </c>
+      <c r="V63">
+        <v>8.5082314265863399</v>
+      </c>
+      <c r="W63">
+        <v>9.9832795661045299</v>
+      </c>
+      <c r="X63">
+        <v>11.571706885102699</v>
+      </c>
+      <c r="Y63">
+        <v>13.568821654055499</v>
+      </c>
+      <c r="Z63">
+        <v>15.6170988778434</v>
+      </c>
+      <c r="AA63">
+        <v>18.3015588298137</v>
+      </c>
+      <c r="AB63">
+        <v>20.918206190629299</v>
+      </c>
+      <c r="AC63">
+        <v>24.4681306962453</v>
+      </c>
+      <c r="AD63">
+        <v>27.740592443234501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1.76500784561503</v>
+      </c>
+      <c r="B66">
+        <v>1.3869139121001299</v>
+      </c>
+      <c r="C66">
+        <v>1.0344482055175801</v>
+      </c>
+      <c r="D66">
+        <v>0.82576956797338397</v>
+      </c>
+      <c r="E66">
+        <v>0.64164652320250704</v>
+      </c>
+      <c r="F66">
+        <v>0.51466195335425702</v>
+      </c>
+      <c r="G66">
+        <v>0.43215301133966599</v>
+      </c>
+      <c r="H66">
+        <v>0.37406616916396102</v>
+      </c>
+      <c r="I66">
+        <v>0.32790925277440602</v>
+      </c>
+      <c r="J66">
+        <v>0.30125551913576398</v>
+      </c>
+      <c r="K66">
+        <v>0.286779344614569</v>
+      </c>
+      <c r="L66">
+        <v>0.28476010249360101</v>
+      </c>
+      <c r="M66">
+        <v>0.29474220457996098</v>
+      </c>
+      <c r="N66">
+        <v>0.31757650774452401</v>
+      </c>
+      <c r="O66">
+        <v>0.351066898481803</v>
+      </c>
+      <c r="P66">
+        <v>0.39191285261113001</v>
+      </c>
+      <c r="Q66">
+        <v>0.44026137459532</v>
+      </c>
+      <c r="R66">
+        <v>0.49532202855198099</v>
+      </c>
+      <c r="S66">
+        <v>0.55631495549432597</v>
+      </c>
+      <c r="T66">
+        <v>0.62231688556403197</v>
+      </c>
+      <c r="U66">
+        <v>0.69393905566494096</v>
+      </c>
+      <c r="V66">
+        <v>0.77015967371837601</v>
+      </c>
+      <c r="W66">
+        <v>0.85142923130065296</v>
+      </c>
+      <c r="X66">
+        <v>0.93698349717172902</v>
+      </c>
+      <c r="Y66">
+        <v>1.02734606721733</v>
+      </c>
+      <c r="Z66">
+        <v>1.12193499380456</v>
+      </c>
+      <c r="AA66">
+        <v>1.2214286334579001</v>
+      </c>
+      <c r="AB66">
+        <v>1.32513575753116</v>
+      </c>
+      <c r="AC66">
+        <v>1.4340194463126901</v>
+      </c>
+      <c r="AD66">
+        <v>1.54743559326903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1.7486373053165101</v>
+      </c>
+      <c r="B68">
+        <v>1.30946265922611</v>
+      </c>
+      <c r="C68">
+        <v>0.89211839525960301</v>
+      </c>
+      <c r="D68">
+        <v>0.62785217618855405</v>
+      </c>
+      <c r="E68">
+        <v>0.399488626496531</v>
+      </c>
+      <c r="F68">
+        <v>0.26577122195812902</v>
+      </c>
+      <c r="G68">
+        <v>0.245267208631821</v>
+      </c>
+      <c r="H68">
+        <v>0.29365678903530101</v>
+      </c>
+      <c r="I68">
+        <v>0.38703380647525498</v>
+      </c>
+      <c r="J68">
+        <v>0.52571511551016104</v>
+      </c>
+      <c r="K68">
+        <v>0.71606490857178595</v>
+      </c>
+      <c r="L68">
+        <v>0.94816052873791201</v>
+      </c>
+      <c r="M68">
+        <v>1.2209175437437001</v>
+      </c>
+      <c r="N68">
+        <v>1.5462460968948399</v>
+      </c>
+      <c r="O68">
+        <v>1.9367026509441401</v>
+      </c>
+      <c r="P68">
+        <v>2.3953705003882999</v>
+      </c>
+      <c r="Q68">
+        <v>2.9389749945512</v>
+      </c>
+      <c r="R68">
+        <v>3.5841191229873499</v>
+      </c>
+      <c r="S68">
+        <v>4.3521392429338803</v>
+      </c>
+      <c r="T68">
+        <v>5.2605546822907696</v>
+      </c>
+      <c r="U68">
+        <v>6.34349292356542</v>
+      </c>
+      <c r="V68">
+        <v>7.62133229667963</v>
+      </c>
+      <c r="W68">
+        <v>9.1446502818557107</v>
+      </c>
+      <c r="X68">
+        <v>10.948220712238999</v>
+      </c>
+      <c r="Y68">
+        <v>13.0971050201293</v>
+      </c>
+      <c r="Z68">
+        <v>15.641213607958999</v>
+      </c>
+      <c r="AA68">
+        <v>18.6749347162474</v>
+      </c>
+      <c r="AB68">
+        <v>22.263078860587299</v>
+      </c>
+      <c r="AC68">
+        <v>26.541403476434802</v>
+      </c>
+      <c r="AD68">
+        <v>31.604363789801202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>11.599772883715</v>
+      </c>
+      <c r="B72">
+        <v>10.8621647368608</v>
+      </c>
+      <c r="C72">
+        <v>10.808802847174199</v>
+      </c>
+      <c r="D72">
+        <v>10.7361110991269</v>
+      </c>
+      <c r="E72">
+        <v>10.743722990985001</v>
+      </c>
+      <c r="F72">
+        <v>10.7175274882045</v>
+      </c>
+      <c r="G72">
+        <v>10.732874121259</v>
+      </c>
+      <c r="H72">
+        <v>10.722590857346299</v>
+      </c>
+      <c r="I72">
+        <v>10.7286574692545</v>
+      </c>
+      <c r="J72">
+        <v>10.7409481563454</v>
+      </c>
+      <c r="K72">
+        <v>10.740873454433901</v>
+      </c>
+      <c r="L72">
+        <v>10.770263396958599</v>
+      </c>
+      <c r="M72">
+        <v>10.769923578950401</v>
+      </c>
+      <c r="N72">
+        <v>10.8071959628661</v>
+      </c>
+      <c r="O72">
+        <v>10.828331882752201</v>
+      </c>
+      <c r="P72">
+        <v>10.906605319951099</v>
+      </c>
+      <c r="Q72">
+        <v>10.934122442607499</v>
+      </c>
+      <c r="R72">
+        <v>11.0207713534472</v>
+      </c>
+      <c r="S72">
+        <v>11.128158557679001</v>
+      </c>
+      <c r="T72">
+        <v>11.0163106539165</v>
+      </c>
+      <c r="U72">
+        <v>11.505785829973</v>
+      </c>
+      <c r="V72">
+        <v>11.312550168424201</v>
+      </c>
+      <c r="W72">
+        <v>11.682765629213501</v>
+      </c>
+      <c r="X72">
+        <v>11.929580083828901</v>
+      </c>
+      <c r="Y72">
+        <v>12.5213724967911</v>
+      </c>
+      <c r="Z72">
+        <v>12.813050852412999</v>
+      </c>
+      <c r="AA72">
+        <v>14.2730930946101</v>
+      </c>
+      <c r="AB72">
+        <v>13.1638105197691</v>
+      </c>
+      <c r="AC72">
+        <v>16.4166976459782</v>
+      </c>
+      <c r="AD72">
+        <v>17.180228990235999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>11.3469773953681</v>
+      </c>
+      <c r="B74">
+        <v>10.4659302607109</v>
+      </c>
+      <c r="C74">
+        <v>10.416204546574299</v>
+      </c>
+      <c r="D74">
+        <v>10.330837806783601</v>
+      </c>
+      <c r="E74">
+        <v>10.3550947838193</v>
+      </c>
+      <c r="F74">
+        <v>10.3447805624323</v>
+      </c>
+      <c r="G74">
+        <v>10.364838189798199</v>
+      </c>
+      <c r="H74">
+        <v>10.4078482353688</v>
+      </c>
+      <c r="I74">
+        <v>10.4615629254645</v>
+      </c>
+      <c r="J74">
+        <v>10.617513390149201</v>
+      </c>
+      <c r="K74">
+        <v>10.793372776021499</v>
+      </c>
+      <c r="L74">
+        <v>11.0846845327235</v>
+      </c>
+      <c r="M74">
+        <v>11.395423830674</v>
+      </c>
+      <c r="N74">
+        <v>12.049486364036399</v>
+      </c>
+      <c r="O74">
+        <v>12.276196601011501</v>
+      </c>
+      <c r="P74">
+        <v>12.8356992188767</v>
+      </c>
+      <c r="Q74">
+        <v>14.794445677235201</v>
+      </c>
+      <c r="R74">
+        <v>18.613563363263999</v>
+      </c>
+      <c r="S74">
+        <v>24.157480743927</v>
+      </c>
+      <c r="T74">
+        <v>42.6861747426927</v>
+      </c>
+      <c r="U74">
+        <v>31.952630347238099</v>
+      </c>
+      <c r="V74">
+        <v>83.227131176879496</v>
+      </c>
+      <c r="W74">
+        <v>34.841378094028897</v>
+      </c>
+      <c r="X74">
+        <v>39.4168039541415</v>
+      </c>
+      <c r="Y74">
+        <v>44.490005916487497</v>
+      </c>
+      <c r="Z74">
+        <v>118.824588261089</v>
+      </c>
+      <c r="AA74">
+        <v>88.675812306477795</v>
+      </c>
+      <c r="AB74">
+        <v>75.404660077857997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9E78C7-A655-4EDD-9B11-5F49FE07429F}">
+  <dimension ref="A2:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>3.2056422197156</v>
+      </c>
+      <c r="C2">
+        <v>0.64646407468296097</v>
+      </c>
+      <c r="D2">
+        <v>2.3234904561832002</v>
+      </c>
+      <c r="E2">
+        <v>2.4767696559429102</v>
+      </c>
+      <c r="F2">
+        <v>6.58828635778627</v>
+      </c>
+      <c r="G2">
+        <v>7.4165890812873796</v>
+      </c>
+      <c r="H2">
+        <v>16.769767761254101</v>
+      </c>
+      <c r="I2">
+        <v>17.4725017547607</v>
+      </c>
+      <c r="J2">
+        <v>36.989217758178697</v>
+      </c>
+      <c r="K2">
+        <v>37.679890453815403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>12.243161963531699</v>
+      </c>
+      <c r="C3">
+        <v>10.196920365487999</v>
+      </c>
+      <c r="D3">
+        <v>8.5168616148280307</v>
+      </c>
+      <c r="E3">
+        <v>7.3088977102809398</v>
+      </c>
+      <c r="F3">
+        <v>6.2644046153816504</v>
+      </c>
+      <c r="G3">
+        <v>5.6211188972002404</v>
+      </c>
+      <c r="H3">
+        <v>4.8515188897160497</v>
+      </c>
+      <c r="I3">
+        <v>4.5133267455688602</v>
+      </c>
+      <c r="J3">
+        <v>3.8910397465604301</v>
+      </c>
+      <c r="K3">
+        <v>3.67271932560468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>